--- a/Oefening_week2_Garagepoort/oplossing/oplossing_tabellen_IPO_en_verantwoordelijkheden.xlsx
+++ b/Oefening_week2_Garagepoort/oplossing/oplossing_tabellen_IPO_en_verantwoordelijkheden.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vak1\Oefeningen\Oefening_week2_Garagepoort\oplossing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maarten.troost\Documents\GitHub\Klasrepo\Oefening_week2_Garagepoort\oplossing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B099D8D9-83C5-4E93-91C9-671A19FCDB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F2A0FF-7BA3-47F3-A1FF-4F0792E5E006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{94266EBF-3333-45B8-8C47-7835C943F5E9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>REQ001: Het aantal auto's in de garage is bekend</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,6 +794,9 @@
         <v>36</v>
       </c>
       <c r="D5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
